--- a/test.xlsx
+++ b/test.xlsx
@@ -14,30 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+  <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
+    <t>Cluj-Cluj</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
+  </si>
+  <si>
+    <t>Cluj-Apahida</t>
+  </si>
+  <si>
+    <t>Cluj-Cmp. Turzii</t>
+  </si>
+  <si>
+    <t>Cluj-Zalau</t>
+  </si>
   <si>
     <t>Cluj-Bistrita</t>
-  </si>
-  <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
-    <t>Cluj-Bontida</t>
-  </si>
-  <si>
-    <t>Cluj-Cluj</t>
-  </si>
-  <si>
-    <t>Cluj-Turda</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Zalau</t>
   </si>
 </sst>
 </file>
@@ -387,17 +384,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -407,22 +404,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -432,7 +429,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -442,37 +439,37 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29">
-        <v>2434</v>
+        <v>1597</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,17 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
-  <si>
-    <t>Cluj-Turda</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+  <si>
+    <t>Cluj-Baia-Mare</t>
+  </si>
+  <si>
+    <t>Cluj-Bistrita</t>
+  </si>
+  <si>
+    <t>Cluj-Bontida</t>
+  </si>
+  <si>
+    <t>Acasa-Birou</t>
   </si>
   <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
-    <t>Acasa-Birou</t>
-  </si>
-  <si>
     <t>Cluj-Apahida</t>
   </si>
   <si>
@@ -32,9 +38,6 @@
   </si>
   <si>
     <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
   </si>
 </sst>
 </file>
@@ -384,12 +387,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -399,77 +402,77 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29">
-        <v>1597</v>
+        <v>2723</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
-  <si>
-    <t>Cluj-Baia-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+  <si>
+    <t>Cluj-Dej</t>
   </si>
   <si>
     <t>Cluj-Bontida</t>
@@ -28,16 +25,22 @@
     <t>Acasa-Birou</t>
   </si>
   <si>
+    <t>Cluj-Zalau</t>
+  </si>
+  <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Cluj-Apahida</t>
   </si>
   <si>
+    <t>Cluj-Turda</t>
+  </si>
+  <si>
     <t>Cluj-Cmp. Turzii</t>
   </si>
   <si>
-    <t>Cluj-Zalau</t>
+    <t>Cluj-Satu-Mare</t>
   </si>
 </sst>
 </file>
@@ -392,12 +395,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -407,12 +410,12 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -422,12 +425,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -437,12 +440,12 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -457,22 +460,22 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29">
-        <v>2723</v>
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
